--- a/01_Input/00_CO Validation/Benin - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Benin - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_412410E29FA9995E88863C494F0F7FA0782933C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60B5FABE-12E5-4D08-9CDB-52CF7603835F}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_412410E29FA9995E88863C494F0F7FA0782933C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92FABA2-9452-4860-86A3-71E8D45F82C3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -392,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -513,11 +516,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -608,36 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -647,6 +680,87 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,7 +1067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559C757D-7601-4334-87E7-1D22985336BC}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1053,10 +1169,10 @@
         <v>22</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="47">
+      <c r="K2" s="37">
         <v>0.5</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="16"/>
@@ -1073,16 +1189,16 @@
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="144" customHeight="1">
-      <c r="A3" s="34">
+      <c r="A3" s="49">
         <v>5115</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="49">
         <v>3872602</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -1102,7 +1218,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="16"/>
@@ -1117,11 +1233,11 @@
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="96.75" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="17" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="51" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -1138,7 +1254,7 @@
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="16"/>
@@ -1149,11 +1265,11 @@
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="72" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="17" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="51" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -1170,7 +1286,7 @@
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="16"/>
@@ -1181,16 +1297,16 @@
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" ht="57.75" customHeight="1">
-      <c r="A6" s="36">
+      <c r="A6" s="29">
         <v>4979</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="29">
         <v>8000000</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -1210,7 +1326,7 @@
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="16"/>
@@ -1225,11 +1341,11 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18" ht="48.75" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="17" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="51" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -1245,10 +1361,10 @@
         <v>43</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="48">
+      <c r="K7" s="38">
         <v>0.5</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="16"/>
@@ -1259,11 +1375,11 @@
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:18" ht="51" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="17" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -1279,10 +1395,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="48">
+      <c r="K8" s="38">
         <v>0.5</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="16"/>
@@ -1293,11 +1409,11 @@
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="17" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -1313,10 +1429,10 @@
         <v>47</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="48">
+      <c r="K9" s="38">
         <v>0.5</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="16"/>
@@ -1327,11 +1443,11 @@
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:18" ht="80.25" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="31" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -1347,10 +1463,10 @@
         <v>49</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="48">
+      <c r="K10" s="38">
         <v>0.5</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="16"/>
@@ -1361,16 +1477,16 @@
       <c r="R10" s="16"/>
     </row>
     <row r="11" spans="1:18" ht="125.25" customHeight="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="55">
         <v>1400000</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -1393,7 +1509,7 @@
         <f>26000/50000</f>
         <v>0.52</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="16"/>
@@ -1423,16 +1539,6 @@
       <c r="B16" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P15" xr:uid="{070A93F9-368A-49C4-8307-28455EF6EB11}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
@@ -1572,8 +1678,8 @@
         <v>22</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="44" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="16"/>
@@ -1590,16 +1696,16 @@
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="144" customHeight="1">
-      <c r="A3" s="34">
+      <c r="A3" s="39">
         <v>5115</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="39">
         <v>3872602</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -1619,7 +1725,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="16"/>
@@ -1634,10 +1740,10 @@
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="96.75" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="17" t="s">
         <v>32</v>
       </c>
@@ -1655,7 +1761,7 @@
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="16"/>
@@ -1666,10 +1772,10 @@
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="72" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="17" t="s">
         <v>35</v>
       </c>
@@ -1687,7 +1793,7 @@
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="16"/>
@@ -1698,16 +1804,16 @@
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" ht="57.75" customHeight="1">
-      <c r="A6" s="36">
+      <c r="A6" s="41">
         <v>4979</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="39">
         <v>8000000</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -1727,7 +1833,7 @@
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="16"/>
@@ -1742,10 +1848,10 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18" ht="48.75" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="17" t="s">
         <v>32</v>
       </c>
@@ -1762,8 +1868,8 @@
         <v>43</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="44" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="16"/>
@@ -1774,10 +1880,10 @@
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:18" ht="51" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="17" t="s">
         <v>41</v>
       </c>
@@ -1794,8 +1900,8 @@
         <v>45</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="44" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="16"/>
@@ -1806,10 +1912,10 @@
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="17" t="s">
         <v>41</v>
       </c>
@@ -1826,8 +1932,8 @@
         <v>47</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="44" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="16"/>
@@ -1838,10 +1944,10 @@
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:18" ht="80.25" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="31" t="s">
         <v>41</v>
       </c>
@@ -1858,8 +1964,8 @@
         <v>49</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="44" t="s">
+      <c r="K10" s="38"/>
+      <c r="L10" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="16"/>
@@ -1870,13 +1976,13 @@
       <c r="R10" s="16"/>
     </row>
     <row r="11" spans="1:18" ht="125.25" customHeight="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="23">
@@ -1902,7 +2008,7 @@
         <f>26000/50000</f>
         <v>0.52</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="16"/>
@@ -1979,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
@@ -2055,16 +2161,16 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="144" customHeight="1">
-      <c r="A3" s="39">
+      <c r="A3" s="44">
         <v>5115</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="44">
         <v>3872602</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2084,10 +2190,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="96.75" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
@@ -2105,10 +2211,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="72" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
@@ -2126,16 +2232,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="57.75" customHeight="1">
-      <c r="A6" s="39">
+      <c r="A6" s="44">
         <v>4979</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="44">
         <v>8000000</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2155,10 +2261,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
@@ -2176,10 +2282,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="51" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="8" t="s">
         <v>41</v>
       </c>
@@ -2197,10 +2303,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="50.25" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="8" t="s">
         <v>41</v>
       </c>
@@ -2218,10 +2324,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="80.25" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
@@ -2239,10 +2345,10 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2250,8 +2356,8 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="125.25" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="11" t="s">
         <v>52</v>
       </c>
@@ -2326,7 +2432,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
@@ -2337,7 +2443,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2452,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -2355,7 +2461,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="46" t="s">
         <v>61</v>
       </c>
       <c r="B5" t="s">
@@ -2366,7 +2472,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="46"/>
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -2375,7 +2481,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="46"/>
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -2384,7 +2490,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="46"/>
       <c r="B8" t="s">
         <v>68</v>
       </c>
@@ -2393,7 +2499,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="46"/>
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -2402,7 +2508,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="47" t="s">
         <v>72</v>
       </c>
       <c r="B10" t="s">
@@ -2413,7 +2519,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="47"/>
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -2422,7 +2528,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="48" t="s">
         <v>77</v>
       </c>
       <c r="B12" t="s">
@@ -2433,7 +2539,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="48"/>
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -2442,7 +2548,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="48"/>
       <c r="B14" t="s">
         <v>81</v>
       </c>
@@ -2484,12 +2590,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2742,18 +2850,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5510E30D-9B98-4CA3-85C2-2BB24B4358BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D94C4FB-A79D-4D61-842D-C1C39DFB6AC0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2761,5 +2867,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D94C4FB-A79D-4D61-842D-C1C39DFB6AC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5510E30D-9B98-4CA3-85C2-2BB24B4358BC}"/>
 </file>
--- a/01_Input/00_CO Validation/Benin - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Benin - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="276" documentId="11_412410E29FA9995E88863C494F0F7FA0782933C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92FABA2-9452-4860-86A3-71E8D45F82C3}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="11_412410E29FA9995E88863C494F0F7FA0782933C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE64128-1047-4484-9695-E8CE260B58E7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="98">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -90,6 +90,15 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>National child project under the GEF Africa Minigrids Program</t>
   </si>
   <si>
@@ -108,10 +117,10 @@
     <t>VF</t>
   </si>
   <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>AMP</t>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Solar</t>
   </si>
   <si>
     <t>Benin Biomass Electricity Generation</t>
@@ -134,13 +143,13 @@
 of the project benefitting to 500 perons in terms of jobs creation (see below)</t>
   </si>
   <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Bioenergy</t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of members of the government staff trained 
@@ -173,15 +182,15 @@
     <t>500 senior energy managers trained</t>
   </si>
   <si>
+    <t>Number of operators trained on improved stoves</t>
+  </si>
+  <si>
+    <t>500 operators (with 50% women) trained on improved stoves</t>
+  </si>
+  <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Number of operators trained on improved stoves</t>
-  </si>
-  <si>
-    <t>500 operators (with 50% women) trained on improved stoves</t>
-  </si>
-  <si>
     <t>Number of improved ovens built</t>
   </si>
   <si>
@@ -215,49 +224,73 @@
     <t>Direct access of 50,000 people (including 26,000 women) to clean, reliable and affordable energy and its co-benefits.</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -266,7 +299,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -281,10 +317,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -293,19 +326,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
@@ -315,12 +348,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,8 +377,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,42 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,25 +596,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -613,27 +623,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,14 +655,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +690,82 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,67 +784,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1065,506 +1097,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559C757D-7601-4334-87E7-1D22985336BC}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="15" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="198">
-      <c r="A2" s="19">
+      <c r="S1" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="198">
+      <c r="A2" s="17">
         <v>6658</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="B2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17">
         <v>1326147</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="E2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
         <v>12152</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="17"/>
+      <c r="U2" s="26"/>
+    </row>
+    <row r="3" spans="1:21" ht="144" customHeight="1">
+      <c r="A3" s="37">
+        <v>5115</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="37">
+      <c r="D3" s="37">
+        <v>3872602</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="17"/>
+      <c r="U3" s="26"/>
+    </row>
+    <row r="4" spans="1:21" ht="96.75" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>30</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" ht="72" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>500</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" ht="57.75" customHeight="1">
+      <c r="A6" s="27">
+        <v>4979</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27">
+        <v>8000000</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>500</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" ht="48.75" customHeight="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>500</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="36">
         <v>0.5</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L7" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" ht="51" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>100</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" ht="50.25" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" ht="80.25" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" ht="125.25" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="43">
+        <v>1400000</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" ht="144" customHeight="1">
-      <c r="A3" s="49">
-        <v>5115</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="49">
-        <v>3872602</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <v>4</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" ht="96.75" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <v>30</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" ht="72" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>500</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" ht="57.75" customHeight="1">
-      <c r="A6" s="29">
-        <v>4979</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="29">
-        <v>8000000</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>500</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" ht="48.75" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>500</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:18" ht="51" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>100</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" ht="80.25" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="31">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31">
-        <v>10000</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" ht="125.25" customHeight="1">
-      <c r="A11" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="55">
-        <v>1400000</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="F11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
         <v>50000</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16">
+      <c r="I11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <f>26000/50000</f>
         <v>0.52</v>
       </c>
-      <c r="L11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="29"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="B13" s="29"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="B14" s="29"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="B15" s="29"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="B16" s="30"/>
+      <c r="L11" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="17"/>
+      <c r="U11" s="26"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P15" xr:uid="{070A93F9-368A-49C4-8307-28455EF6EB11}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11" xr:uid="{D209F5FC-AF38-4354-B70C-1FD06A241959}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11" xr:uid="{55A5942B-E5CC-445E-908A-1C5B19C0C4B2}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{070A93F9-368A-49C4-8307-28455EF6EB11}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O14" xr:uid="{DB3EEE8E-0CC3-462C-8696-7B5869DBE18B}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{448F3931-493F-4709-8033-86499E1AE5C8}">
+      <formula1>"Non-VF, VF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17" xr:uid="{A51099B3-A760-4F46-857B-D71C2AEAD9C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{FFEB1751-B710-44AC-8D7D-26F7FA27A862}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T11" xr:uid="{01924587-B55C-4E3B-8098-5D9D424208D4}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S11" xr:uid="{890F5561-1C99-4AFE-AD9E-17CEB05CBF26}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N12" xr:uid="{A51099B3-A760-4F46-857B-D71C2AEAD9C8}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{7F515767-ADDF-4A70-AACF-C5AF308D180F}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{A3B056B7-E5AF-425A-A4AC-1EB4A4008890}">
-      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R11" xr:uid="{A75BAAA4-B46E-4D28-987E-63A9E25A6343}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5F07058-B3D7-4C5D-8A6E-45416D4F7361}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1158C9CD-956E-43AD-A513-1EB93AB71DEB}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E16</xm:sqref>
+          <xm:sqref>E2:E11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1594,448 +1676,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="198">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>6658</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17">
         <v>1326147</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="E2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
         <v>12152</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" ht="144" customHeight="1">
+      <c r="A3" s="63">
+        <v>5115</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="34" t="s">
+      <c r="D3" s="63">
+        <v>3872602</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" ht="96.75" customHeight="1">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>30</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" ht="72" customHeight="1">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>500</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="57.75" customHeight="1">
+      <c r="A6" s="65">
+        <v>4979</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="63">
+        <v>8000000</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>500</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" ht="48.75" customHeight="1">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>500</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" ht="51" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>100</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" ht="50.25" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" ht="80.25" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" ht="125.25" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1400000</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" ht="144" customHeight="1">
-      <c r="A3" s="39">
-        <v>5115</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="39">
-        <v>3872602</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <v>4</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" ht="96.75" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <v>30</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" ht="72" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>500</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" ht="57.75" customHeight="1">
-      <c r="A6" s="41">
-        <v>4979</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="39">
-        <v>8000000</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>500</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" ht="48.75" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>500</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:18" ht="51" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>100</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" ht="80.25" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="31">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31">
-        <v>10000</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" ht="125.25" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="23">
-        <v>1400000</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="F11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
         <v>50000</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16">
+      <c r="I11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <f>26000/50000</f>
         <v>0.52</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="29"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="29"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="29"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="29"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="30"/>
+      <c r="B16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2071,9 +2153,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A4C5E18-1F7A-443C-97B4-D10139445A89}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E10 E11:E16</xm:sqref>
+          <xm:sqref>E2:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2125,259 +2207,259 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="198">
       <c r="A2">
         <v>6658</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1326147</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>12152</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="144" customHeight="1">
+      <c r="A3" s="68">
+        <v>5115</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="144" customHeight="1">
-      <c r="A3" s="44">
-        <v>5115</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="44">
+      <c r="D3" s="68">
         <v>3872602</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>29</v>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="96.75" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="A4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>34</v>
+      <c r="I4" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="72" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="A5" s="68"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>500</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>37</v>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="57.75" customHeight="1">
-      <c r="A6" s="44">
+      <c r="A6" s="68">
         <v>4979</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="44">
+      <c r="B6" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="68">
         <v>8000000</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>500</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>40</v>
+      <c r="I6" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>500</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>43</v>
+      <c r="I7" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="51" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>100</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>45</v>
+      <c r="I8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="50.25" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>1000</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>47</v>
+      <c r="I9" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="80.25" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>10000</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>49</v>
+      <c r="I10" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="125.25" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="8">
         <v>1400000</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="E12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>50000</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>54</v>
+      <c r="I12" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2479,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E17</xm:sqref>
         </x14:dataValidation>
@@ -2409,198 +2491,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="45"/>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="45"/>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B1" s="56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="46"/>
-      <c r="B6" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="46"/>
-      <c r="B7" t="s">
+      <c r="B5" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="46"/>
-      <c r="B8" t="s">
+      <c r="B6" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="46"/>
-      <c r="B9" t="s">
+      <c r="B7" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="47" t="s">
+      <c r="B8" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B9" s="57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="47"/>
-      <c r="B11" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B10" s="70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="48" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B11" s="70" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="48"/>
-      <c r="B13" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B12" s="57" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="48"/>
-      <c r="B14" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B13" s="70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B14" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="69" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
+      <c r="B17" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2849,7 +2932,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2858,14 +2941,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D94C4FB-A79D-4D61-842D-C1C39DFB6AC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907C3544-F5C2-41B4-8B83-BE99D5B8E4F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907C3544-F5C2-41B4-8B83-BE99D5B8E4F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5510E30D-9B98-4CA3-85C2-2BB24B4358BC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5510E30D-9B98-4CA3-85C2-2BB24B4358BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D94C4FB-A79D-4D61-842D-C1C39DFB6AC0}"/>
 </file>